--- a/medicine/Psychotrope/Don_de_Dieu_(navire)/Don_de_Dieu_(navire).xlsx
+++ b/medicine/Psychotrope/Don_de_Dieu_(navire)/Don_de_Dieu_(navire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Don de Dieu était un navire de 150 tonneaux, affrété pour Samuel de Champlain afin qu'il explore la rivière Saguenay. Il était l'un des trois navires partis de France au printemps 1608 pour fonder Québec. Ce navire appartenait à des armateurs protestants.
@@ -512,7 +524,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Don de Dieu figure sur le drapeau de la ville de Québec ainsi que sur ses armoiries. La devise inscrite sur les armoiries 'Don de Dieu feray valoir', peut se traduire par 'Cadeau de Dieu se fera utile' .
 Une réplique a été réalisée en 1908 à l'occasion des 300 ans de la fondation de Québec.
